--- a/PdM.xlsx
+++ b/PdM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koka\Desktop\新しいフォルダー (2)\SandBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F7F245A-0ECF-472F-AB8A-630E92DE8D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D87989-707A-40A3-BA68-D0E426E4BA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="-108" windowWidth="21840" windowHeight="13176" activeTab="1" xr2:uid="{494A56B3-D162-4558-B3E0-7B1A705CDF9E}"/>
+    <workbookView xWindow="1308" yWindow="-108" windowWidth="21840" windowHeight="13176" xr2:uid="{494A56B3-D162-4558-B3E0-7B1A705CDF9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+  <si>
+    <t>開発初期</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改修（機能拡張）</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>キノウカクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（メンバー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバー2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメンバー</t>
+  </si>
+  <si>
+    <t>メインメンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロダクトマネージメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
@@ -52,20 +111,223 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -74,8 +336,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -84,6 +406,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -99,13 +426,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -123,7 +450,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1927860" y="220980"/>
+          <a:off x="1104900" y="220980"/>
           <a:ext cx="1912620" cy="2979420"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -222,183 +549,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05632F80-BCC5-7A16-C8BF-D0B6C040A1C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="548640" y="5021580"/>
-          <a:ext cx="1363980" cy="693420"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>メンバー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E451331-D522-B4E1-A822-BB8CC8604FE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2202180" y="5486400"/>
-          <a:ext cx="1363980" cy="693420"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>メンバー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -413,8 +573,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3840480" y="2057400"/>
-          <a:ext cx="822960" cy="685800"/>
+          <a:off x="3291840" y="2537460"/>
+          <a:ext cx="1645920" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -637,16 +797,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>140970</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -663,9 +823,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1230630" y="3200400"/>
-          <a:ext cx="1653540" cy="1821180"/>
+        <a:xfrm>
+          <a:off x="2061210" y="3200400"/>
+          <a:ext cx="0" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -691,70 +851,14 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F4122E-3A73-4AE7-A664-1785391B356F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2884170" y="3200400"/>
-          <a:ext cx="0" cy="2286000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>211085</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>204517</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1172116" cy="564514"/>
+    <xdr:ext cx="1736373" cy="800604"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="テキスト ボックス 19">
@@ -768,8 +872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="487680" y="1493520"/>
-          <a:ext cx="1172116" cy="564514"/>
+          <a:off x="2116085" y="3379517"/>
+          <a:ext cx="1736373" cy="800604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,64 +911,41 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・開発技術</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>221967</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1736373" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4B60DE-E149-169D-6696-48B74B48E85F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2965167" y="3657600"/>
-          <a:ext cx="1736373" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>・プロダクトの開発方針</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -872,7 +953,7 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -896,8 +977,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3840480" y="228600"/>
-          <a:ext cx="822960" cy="685800"/>
+          <a:off x="3291840" y="228600"/>
+          <a:ext cx="1645920" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -934,7 +1015,7 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -958,8 +1039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3840480" y="1143000"/>
-          <a:ext cx="822960" cy="685800"/>
+          <a:off x="3291840" y="1143000"/>
+          <a:ext cx="1645920" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1183,6 +1264,190 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0C29B2-6CC8-3FAB-3D34-A0625895EFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1368334" y="4907643"/>
+          <a:ext cx="1897380" cy="1141548"/>
+          <a:chOff x="548640" y="4800600"/>
+          <a:chExt cx="1912620" cy="1150620"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDA5BC8-743B-0619-0AA6-DA657E001061}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1097280" y="5257800"/>
+            <a:ext cx="1363980" cy="693420"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E451331-D522-B4E1-A822-BB8CC8604FE1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="822960" y="5029200"/>
+            <a:ext cx="1363980" cy="693420"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05632F80-BCC5-7A16-C8BF-D0B6C040A1C1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="548640" y="4800600"/>
+            <a:ext cx="1363980" cy="693420"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>メンバー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2219,12 +2484,1128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8EC093-0E44-4E2D-9891-C45E8498F508}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BC30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="3"/>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="6"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="6"/>
+      <c r="AD3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AH3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+    </row>
+    <row r="4" spans="1:55" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="6"/>
+    </row>
+    <row r="5" spans="1:55" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="6"/>
+      <c r="AD5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="13"/>
+      <c r="AH5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+    </row>
+    <row r="6" spans="1:55" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="6"/>
+    </row>
+    <row r="7" spans="1:55" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="6"/>
+      <c r="AD7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="16"/>
+      <c r="AH7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="19"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19"/>
+    </row>
+    <row r="8" spans="1:55" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="6"/>
+      <c r="AD8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="16"/>
+      <c r="AH8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="19"/>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="19"/>
+    </row>
+    <row r="9" spans="1:55" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="6"/>
+      <c r="AD9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="16"/>
+      <c r="AH9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="19"/>
+    </row>
+    <row r="10" spans="1:55" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="6"/>
+      <c r="AD10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="16"/>
+      <c r="AH10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+    </row>
+    <row r="11" spans="1:55" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="6"/>
+      <c r="AD11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="16"/>
+      <c r="AH11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" s="19"/>
+      <c r="BB11" s="19"/>
+      <c r="BC11" s="19"/>
+    </row>
+    <row r="12" spans="1:55" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="6"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="6"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="6"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="6"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="6"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="6"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="6"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="6"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="6"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="6"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="6"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="6"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="6"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="6"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="6"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="AH7:BC7"/>
+    <mergeCell ref="AH8:BC8"/>
+    <mergeCell ref="AH9:BC9"/>
+    <mergeCell ref="AH10:BC10"/>
+    <mergeCell ref="AH11:BC11"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:BC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AL5:AQ5"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2235,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88716EA-3949-4F83-8E2D-AE69D08135FF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
